--- a/biology/Botanique/Cordia_trichotoma/Cordia_trichotoma.xlsx
+++ b/biology/Botanique/Cordia_trichotoma/Cordia_trichotoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Peteribí ou Petiribí (Cordia trichotoma) est une espèce d'arbres de la famille des Boraginaceae. Elle est originaire de l'Amérique du Sud : Bolivie, Équateur, Paraguay, Brésil, Argentine.
 </t>
@@ -513,13 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>En espagnol
-Argentine: loro negro, peteribí, peterebí hú, peterebí saiyú, guayaiví hu, loro amarillo, afata, baria amarilla
+          <t>En espagnol</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Argentine: loro negro, peteribí, peterebí hú, peterebí saiyú, guayaiví hu, loro amarillo, afata, baria amarilla
 Bolivie: piquana blanca
 Équateur: laurel negro, laurel
-Paraguay: peterevy, guajayvi hu
-En portugais
-Brésil: claraiba, freijó, louro-pardo, louro preto, louro, louro amarelo, louromarelo, louro-batata, louro-cabeludo, louro-da-serra, peterebi, louro cascudo, cascudinho, louro do sul, louro mutamba, ajui</t>
+Paraguay: peterevy, guajayvi hu</t>
         </is>
       </c>
     </row>
@@ -544,13 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Synonymes</t>
+          <t>Noms vernaculaires</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C. hassleriana Chodat; C. trichotoma Vell.; C. alliodora var. tomentosa; C. frondosa; C. hypoleuca; C. trichotoma Vell. var. blanchetti Choisy; Gerascanthus trichotoma
-</t>
+          <t>En portugais</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brésil: claraiba, freijó, louro-pardo, louro preto, louro, louro amarelo, louromarelo, louro-batata, louro-cabeludo, louro-da-serra, peterebi, louro cascudo, cascudinho, louro do sul, louro mutamba, ajui</t>
         </is>
       </c>
     </row>
@@ -575,10 +595,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. hassleriana Chodat; C. trichotoma Vell.; C. alliodora var. tomentosa; C. frondosa; C. hypoleuca; C. trichotoma Vell. var. blanchetti Choisy; Gerascanthus trichotoma
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cordia_trichotoma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cordia_trichotoma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce pionnière ayant un haut pouvoir de dispersion. Elle colonise les terres incendiées, et surtout les clairières des forêts.
 L'arbre atteint une hauteur de 25 mètres.  Le bois est brun verdâtre, avec une densité de 0,65-0,78 gramme/cm3. On en fait des meubles, des revêtements, des plaques, des constructions civiles, des tonneaux, des embarcations. Charpenterie, sculptures, têtes d'instruments en bois,
